--- a/data/trans_dic/P15E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.7103892996675041</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7528389811522658</v>
+        <v>0.7528389811522657</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6362788973570122</v>
+        <v>0.6047283759954537</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5737501196405709</v>
+        <v>0.5718491075737814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6565870815201554</v>
+        <v>0.6387854351401843</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9390371072340387</v>
+        <v>0.9390299761803371</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8201632040245798</v>
+        <v>0.823141082389327</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8437727986512336</v>
+        <v>0.8399789672401972</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.5779044294954716</v>
+        <v>0.5779044294954717</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.7357922439723332</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6943234961166631</v>
+        <v>0.6943234961166632</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3094726365505959</v>
+        <v>0.3000963967288625</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.596894592906056</v>
+        <v>0.6080451620703552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5654394510261919</v>
+        <v>0.5506363483749497</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8441773615799097</v>
+        <v>0.8491260695277026</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8499867500807208</v>
+        <v>0.8498849495377034</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.810976486191211</v>
+        <v>0.8037927033754485</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6018475223293744</v>
+        <v>0.6018475223293743</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8475721688868213</v>
+        <v>0.8475721688868211</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8080766447654638</v>
+        <v>0.8080766447654637</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2393483584984133</v>
+        <v>0.1657759837687449</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6980651119064863</v>
+        <v>0.7119277850555781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6573424444553208</v>
+        <v>0.6593145360329963</v>
       </c>
     </row>
     <row r="12">
@@ -711,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9416235607610309</v>
+        <v>0.9438275230384011</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9121096619355721</v>
+        <v>0.9136604939320876</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.5931926346804667</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.548019220021048</v>
+        <v>0.5480192200210481</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2316449836728767</v>
+        <v>0.2172321548595096</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4018390259499824</v>
+        <v>0.4114478998762995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4005006321843012</v>
+        <v>0.4017395168811219</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.732824467134193</v>
+        <v>0.7211860529132512</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7552954374168879</v>
+        <v>0.7525292126990277</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6735646632576037</v>
+        <v>0.6734470661199772</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.6401745472237639</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7292012165671371</v>
+        <v>0.7292012165671372</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.702513263600106</v>
+        <v>0.7025132636001061</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4828359200218616</v>
+        <v>0.504242052078869</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6558374810420674</v>
+        <v>0.6591992303814431</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6389084942220862</v>
+        <v>0.6412783470582182</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7518346003207015</v>
+        <v>0.7634351258886519</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7902907998026882</v>
+        <v>0.7924149587477185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7620444482468249</v>
+        <v>0.7643902439353749</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9161</v>
+        <v>8706</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12596</v>
+        <v>12554</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23868</v>
+        <v>23220</v>
       </c>
     </row>
     <row r="7">
@@ -986,10 +986,10 @@
         <v>13519</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18005</v>
+        <v>18070</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>30672</v>
+        <v>30534</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2589</v>
+        <v>2511</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14020</v>
+        <v>14282</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18012</v>
+        <v>17540</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7062</v>
+        <v>7104</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19964</v>
+        <v>19962</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25833</v>
+        <v>25604</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1114</v>
+        <v>772</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16968</v>
+        <v>17305</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19038</v>
+        <v>19095</v>
       </c>
     </row>
     <row r="15">
@@ -1130,10 +1130,10 @@
         <v>4655</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22888</v>
+        <v>22942</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26417</v>
+        <v>26461</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2475</v>
+        <v>2321</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7738</v>
+        <v>7923</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11992</v>
+        <v>12029</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7830</v>
+        <v>7706</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14544</v>
+        <v>14491</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20168</v>
+        <v>20164</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18398</v>
+        <v>19214</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>58372</v>
+        <v>58671</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>81210</v>
+        <v>81512</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28648</v>
+        <v>29090</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>70339</v>
+        <v>70528</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>96862</v>
+        <v>97160</v>
       </c>
     </row>
     <row r="24">
